--- a/Data/EC/NIT-9002970260.xlsx
+++ b/Data/EC/NIT-9002970260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4468E462-E3AF-4B00-BF9D-F627D53666D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CBB0D65-4C6C-4EC7-8973-DB72A39DC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89AE54A2-F243-4C6D-ADEA-D6A8C77B153A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BC32922-7CC9-49F3-8858-745794AD6AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,105 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128057590</t>
+  </si>
+  <si>
+    <t>MARIA STELLA ZAPA FERNANDEZ</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>22800807</t>
+  </si>
+  <si>
+    <t>SILVIA JESENIA BOHORQUEZ PATERNINA</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>33226306</t>
+  </si>
+  <si>
+    <t>LILIANA PATRICIA CHAMORRO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1064308635</t>
+  </si>
+  <si>
+    <t>MAURICIO JAVIER BANDA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1047467932</t>
+  </si>
+  <si>
+    <t>VANESSA PAOLA MORENO GARCIA</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>72283533</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS RUIZ MERCADO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>9293737</t>
   </si>
   <si>
@@ -74,34 +173,37 @@
     <t>1701</t>
   </si>
   <si>
-    <t>72283533</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS RUIZ MERCADO</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>22800807</t>
-  </si>
-  <si>
-    <t>SILVIA JESENIA BOHORQUEZ PATERNINA</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
+    <t>1048434579</t>
+  </si>
+  <si>
+    <t>HARRYS DANIEL ALVAREZ MORENO</t>
+  </si>
+  <si>
+    <t>1143410221</t>
+  </si>
+  <si>
+    <t>ANDREA VALENTINA MIRANDA CORCHO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>4902616</t>
+  </si>
+  <si>
+    <t>ATILANO JOSE CARRILLO LEWIS</t>
+  </si>
+  <si>
+    <t>1143390689</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO CRISTANCHO RICO</t>
+  </si>
+  <si>
+    <t>1019026915</t>
+  </si>
+  <si>
+    <t>EDGAR OSWALDO FETECUA VILLAMIL</t>
   </si>
   <si>
     <t>1098749095</t>
@@ -110,94 +212,10 @@
     <t>ANGEL GABRIEL FAGUNDEZ CEPEDA</t>
   </si>
   <si>
-    <t>2403</t>
-  </si>
-  <si>
     <t>1000181391</t>
   </si>
   <si>
     <t>JUAN PABLO GARCIA RUEDA</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>4902616</t>
-  </si>
-  <si>
-    <t>ATILANO JOSE CARRILLO LEWIS</t>
-  </si>
-  <si>
-    <t>1143390689</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO CRISTANCHO RICO</t>
-  </si>
-  <si>
-    <t>1048434579</t>
-  </si>
-  <si>
-    <t>HARRYS DANIEL ALVAREZ MORENO</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1064308635</t>
-  </si>
-  <si>
-    <t>MAURICIO JAVIER BANDA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1128057590</t>
-  </si>
-  <si>
-    <t>MARIA STELLA ZAPA FERNANDEZ</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1143410221</t>
-  </si>
-  <si>
-    <t>ANDREA VALENTINA MIRANDA CORCHO</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -611,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEF67C1-487F-1317-1995-D12546E65C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339F3E24-4C1B-F399-2688-B19AC7F23F99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6396344D-9F25-413E-9D6B-20974BEF38CF}">
-  <dimension ref="B2:J121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1EE3BE-7BF7-4BF9-89CC-20F65B9DBDCB}">
+  <dimension ref="B2:J152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -974,7 +992,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -987,7 +1005,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1050,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1082,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7061166</v>
+        <v>8838232</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,14 +1098,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
         <v>22</v>
@@ -1117,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,10 +1158,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29200</v>
+        <v>138666</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>4000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,19 +1172,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>14900</v>
+        <v>160000</v>
       </c>
       <c r="G17" s="18">
-        <v>745000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>29800</v>
+        <v>160000</v>
       </c>
       <c r="G18" s="18">
-        <v>745000</v>
+        <v>4000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29800</v>
+        <v>160000</v>
       </c>
       <c r="G19" s="18">
-        <v>745000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1223,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>32000</v>
+        <v>160000</v>
       </c>
       <c r="G20" s="18">
-        <v>800000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1246,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>32000</v>
+        <v>160000</v>
       </c>
       <c r="G21" s="18">
-        <v>800000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="18">
-        <v>32000</v>
+        <v>160000</v>
       </c>
       <c r="G22" s="18">
-        <v>800000</v>
+        <v>4000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1315,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1335,22 +1353,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>34000</v>
+        <v>160000</v>
       </c>
       <c r="G26" s="18">
-        <v>1700000</v>
+        <v>4000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1384,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>20800</v>
+        <v>160000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1407,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>68000</v>
+        <v>160000</v>
       </c>
       <c r="G28" s="18">
-        <v>1700000</v>
+        <v>4000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1430,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1453,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1476,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>32000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1499,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="G32" s="18">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1519,22 +1537,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1545,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>60000</v>
+        <v>45066</v>
       </c>
       <c r="G34" s="18">
         <v>1500000</v>
@@ -1568,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1588,19 +1606,19 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F36" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
         <v>1500000</v>
@@ -1614,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1637,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
         <v>1500000</v>
@@ -1666,13 +1684,13 @@
         <v>33</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1683,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F40" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
         <v>1500000</v>
@@ -1706,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F41" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1729,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1749,19 +1767,19 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F43" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
         <v>1500000</v>
@@ -1775,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F44" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1798,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F45" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1821,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
         <v>1500000</v>
@@ -1844,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F47" s="18">
         <v>60000</v>
@@ -1867,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>60000</v>
+        <v>45066</v>
       </c>
       <c r="G48" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1890,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G49" s="18">
-        <v>1700000</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1910,22 +1928,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1936,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1959,19 +1977,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G52" s="18">
-        <v>4000000</v>
+        <v>1300000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1982,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G53" s="18">
-        <v>1700000</v>
+        <v>1300000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2005,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F54" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G54" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2028,19 +2046,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F55" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G55" s="18">
-        <v>1700000</v>
+        <v>1300000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2051,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F56" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G56" s="18">
-        <v>1700000</v>
+        <v>1300000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2074,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F57" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2097,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F58" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G58" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2117,22 +2135,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F59" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2143,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F60" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>4000000</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2166,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E61" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2189,19 +2207,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G62" s="18">
-        <v>1700000</v>
+        <v>1300000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2212,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F63" s="18">
-        <v>60000</v>
+        <v>29800</v>
       </c>
       <c r="G63" s="18">
-        <v>1500000</v>
+        <v>745000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2232,22 +2250,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>60000</v>
+        <v>29800</v>
       </c>
       <c r="G64" s="18">
-        <v>1500000</v>
+        <v>745000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2258,19 +2276,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F65" s="18">
-        <v>60000</v>
+        <v>14900</v>
       </c>
       <c r="G65" s="18">
-        <v>1500000</v>
+        <v>745000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2281,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
-        <v>52000</v>
+        <v>29200</v>
       </c>
       <c r="G66" s="18">
-        <v>1500000</v>
+        <v>730000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2304,19 +2322,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F67" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>4000000</v>
+        <v>737717</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2327,19 +2345,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F68" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>4000000</v>
+        <v>737717</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2350,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F69" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2373,19 +2391,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F70" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G70" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2393,22 +2411,22 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F71" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G71" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2419,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2442,19 +2460,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F73" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G73" s="18">
-        <v>1700000</v>
+        <v>737717</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2465,19 +2483,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F74" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G74" s="18">
-        <v>1700000</v>
+        <v>737717</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2485,22 +2503,22 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F75" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G75" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2511,19 +2529,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F76" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G76" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2534,19 +2552,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F77" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G77" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2557,19 +2575,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F78" s="18">
-        <v>160000</v>
+        <v>52000</v>
       </c>
       <c r="G78" s="18">
-        <v>4000000</v>
+        <v>737717</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2580,19 +2598,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F79" s="18">
         <v>52000</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2603,19 +2621,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="18">
-        <v>52000</v>
+        <v>20800</v>
       </c>
       <c r="G80" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2626,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F81" s="18">
-        <v>160000</v>
+        <v>68000</v>
       </c>
       <c r="G81" s="18">
-        <v>4000000</v>
+        <v>1700000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2646,22 +2664,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F82" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G82" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2669,19 +2687,19 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F83" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G83" s="18">
         <v>1500000</v>
@@ -2692,16 +2710,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F84" s="18">
         <v>60000</v>
@@ -2715,22 +2733,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F85" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G85" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2738,22 +2756,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F86" s="18">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="G86" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2761,22 +2779,22 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F87" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G87" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2784,16 +2802,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F88" s="18">
         <v>60000</v>
@@ -2807,19 +2825,19 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F89" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G89" s="18">
         <v>1500000</v>
@@ -2830,16 +2848,16 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F90" s="18">
         <v>60000</v>
@@ -2853,16 +2871,16 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F91" s="18">
         <v>60000</v>
@@ -2876,19 +2894,19 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G92" s="18">
         <v>1500000</v>
@@ -2899,16 +2917,16 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F93" s="18">
         <v>60000</v>
@@ -2922,22 +2940,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F94" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G94" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2945,22 +2963,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F95" s="18">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="G95" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2968,16 +2986,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F96" s="18">
         <v>60000</v>
@@ -2991,16 +3009,16 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F97" s="18">
         <v>60000</v>
@@ -3017,19 +3035,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18">
-        <v>60000</v>
+        <v>58934</v>
       </c>
       <c r="G98" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3040,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F99" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G99" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3063,19 +3081,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F100" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G100" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3083,22 +3101,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F101" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G101" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3109,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F102" s="18">
-        <v>160000</v>
+        <v>68000</v>
       </c>
       <c r="G102" s="18">
-        <v>4000000</v>
+        <v>1700000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3132,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F103" s="18">
         <v>68000</v>
@@ -3155,13 +3173,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F104" s="18">
         <v>68000</v>
@@ -3178,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F105" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G105" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3198,22 +3216,22 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F106" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G106" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3224,19 +3242,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F107" s="18">
-        <v>160000</v>
+        <v>68000</v>
       </c>
       <c r="G107" s="18">
-        <v>4000000</v>
+        <v>1700000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3247,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F108" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G108" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3270,19 +3288,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F109" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G109" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3290,22 +3308,22 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F110" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G110" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3316,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F111" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G111" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3339,19 +3357,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D112" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E112" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F112" s="18">
-        <v>45066</v>
+        <v>34000</v>
       </c>
       <c r="G112" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3362,13 +3380,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F113" s="18">
         <v>52000</v>
@@ -3385,75 +3403,788 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F114" s="18">
-        <v>138666</v>
+        <v>60000</v>
       </c>
       <c r="G114" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F115" s="24">
-        <v>58934</v>
-      </c>
-      <c r="G115" s="24">
-        <v>1700000</v>
-      </c>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="26"/>
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G115" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G116" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G117" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G118" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G119" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="32"/>
-      <c r="H120" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G120" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G121" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G122" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G123" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G124" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G125" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G126" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G127" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G128" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G129" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G130" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G131" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G132" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G133" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G134" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G135" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G136" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G137" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G138" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G139" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G140" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G141" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G142" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G143" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G144" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G145" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="24">
+        <v>60000</v>
+      </c>
+      <c r="G146" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="26"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" s="32"/>
+      <c r="H151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" s="32"/>
+      <c r="H152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="H151:J151"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002970260.xlsx
+++ b/Data/EC/NIT-9002970260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CBB0D65-4C6C-4EC7-8973-DB72A39DC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11844796-2F96-441F-987E-F4D31558FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BC32922-7CC9-49F3-8858-745794AD6AB7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB7912D1-B4DE-485C-9BE8-C03F5C5C08D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,157 +65,139 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9293737</t>
+  </si>
+  <si>
+    <t>ALEXANDER PUELLO CARABALLO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>72283533</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS RUIZ MERCADO</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>22800807</t>
+  </si>
+  <si>
+    <t>SILVIA JESENIA BOHORQUEZ PATERNINA</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1048434579</t>
+  </si>
+  <si>
+    <t>HARRYS DANIEL ALVAREZ MORENO</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>4902616</t>
+  </si>
+  <si>
+    <t>ATILANO JOSE CARRILLO LEWIS</t>
+  </si>
+  <si>
+    <t>1143390689</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO CRISTANCHO RICO</t>
+  </si>
+  <si>
+    <t>1098749095</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL FAGUNDEZ CEPEDA</t>
+  </si>
+  <si>
+    <t>1000181391</t>
+  </si>
+  <si>
+    <t>JUAN PABLO GARCIA RUEDA</t>
+  </si>
+  <si>
     <t>1128057590</t>
   </si>
   <si>
     <t>MARIA STELLA ZAPA FERNANDEZ</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1064308635</t>
+  </si>
+  <si>
+    <t>MAURICIO JAVIER BANDA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>1143410221</t>
+  </si>
+  <si>
+    <t>ANDREA VALENTINA MIRANDA CORCHO</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>22800807</t>
-  </si>
-  <si>
-    <t>SILVIA JESENIA BOHORQUEZ PATERNINA</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>33226306</t>
-  </si>
-  <si>
-    <t>LILIANA PATRICIA CHAMORRO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1064308635</t>
-  </si>
-  <si>
-    <t>MAURICIO JAVIER BANDA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1047467932</t>
-  </si>
-  <si>
-    <t>VANESSA PAOLA MORENO GARCIA</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>72283533</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS RUIZ MERCADO</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>9293737</t>
-  </si>
-  <si>
-    <t>ALEXANDER PUELLO CARABALLO</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1048434579</t>
-  </si>
-  <si>
-    <t>HARRYS DANIEL ALVAREZ MORENO</t>
-  </si>
-  <si>
-    <t>1143410221</t>
-  </si>
-  <si>
-    <t>ANDREA VALENTINA MIRANDA CORCHO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>4902616</t>
-  </si>
-  <si>
-    <t>ATILANO JOSE CARRILLO LEWIS</t>
-  </si>
-  <si>
-    <t>1143390689</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO CRISTANCHO RICO</t>
-  </si>
-  <si>
-    <t>1019026915</t>
-  </si>
-  <si>
-    <t>EDGAR OSWALDO FETECUA VILLAMIL</t>
-  </si>
-  <si>
-    <t>1098749095</t>
-  </si>
-  <si>
-    <t>ANGEL GABRIEL FAGUNDEZ CEPEDA</t>
-  </si>
-  <si>
-    <t>1000181391</t>
-  </si>
-  <si>
-    <t>JUAN PABLO GARCIA RUEDA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -314,7 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339F3E24-4C1B-F399-2688-B19AC7F23F99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05623F92-E631-386C-465D-77E2221E154D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1EE3BE-7BF7-4BF9-89CC-20F65B9DBDCB}">
-  <dimension ref="B2:J152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3C064A-4D1D-4CA7-B56C-345ECD284CF9}">
+  <dimension ref="B2:J108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -992,7 +974,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1005,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>8838232</v>
+        <v>6392100</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,14 +1080,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
         <v>22</v>
@@ -1135,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1158,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>138666</v>
+        <v>29200</v>
       </c>
       <c r="G16" s="18">
-        <v>4000000</v>
+        <v>730000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1172,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>160000</v>
+        <v>14900</v>
       </c>
       <c r="G17" s="18">
-        <v>4000000</v>
+        <v>745000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1195,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>160000</v>
+        <v>29800</v>
       </c>
       <c r="G18" s="18">
-        <v>4000000</v>
+        <v>745000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1218,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>160000</v>
+        <v>29800</v>
       </c>
       <c r="G19" s="18">
-        <v>4000000</v>
+        <v>745000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1241,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1264,19 +1246,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="G21" s="18">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="G22" s="18">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>160000</v>
+        <v>20800</v>
       </c>
       <c r="G23" s="18">
-        <v>4000000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1330,22 +1312,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1356,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>160000</v>
+        <v>34000</v>
       </c>
       <c r="G25" s="18">
-        <v>4000000</v>
+        <v>1700000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1379,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1402,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="18">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1425,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F28" s="18">
         <v>160000</v>
@@ -1448,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F29" s="18">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="18">
-        <v>4000000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1471,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F30" s="18">
-        <v>32000</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1491,22 +1473,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G31" s="18">
-        <v>800000</v>
+        <v>1500000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1517,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
-        <v>32000</v>
+        <v>68000</v>
       </c>
       <c r="G32" s="18">
-        <v>800000</v>
+        <v>1700000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1546,13 +1528,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="G33" s="18">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1569,10 +1551,10 @@
         <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
-        <v>45066</v>
+        <v>60000</v>
       </c>
       <c r="G34" s="18">
         <v>1500000</v>
@@ -1586,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1609,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1629,19 +1611,19 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G37" s="18">
         <v>1500000</v>
@@ -1655,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1678,16 +1660,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G39" s="18">
         <v>1500000</v>
@@ -1707,10 +1689,10 @@
         <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G40" s="18">
         <v>1500000</v>
@@ -1724,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G41" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1744,19 +1726,19 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="18">
         <v>1500000</v>
@@ -1770,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G43" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1793,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="18">
         <v>1500000</v>
@@ -1822,10 +1804,10 @@
         <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G45" s="18">
         <v>1500000</v>
@@ -1839,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1862,19 +1844,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G47" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1882,22 +1864,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
-        <v>45066</v>
+        <v>60000</v>
       </c>
       <c r="G48" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1908,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G49" s="18">
-        <v>1300000</v>
+        <v>1700000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1931,19 +1913,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G50" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1954,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F51" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G51" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1983,13 +1965,13 @@
         <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G52" s="18">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2000,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>1700000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2020,22 +2002,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2046,19 +2028,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F55" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G55" s="18">
-        <v>1300000</v>
+        <v>1700000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2069,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F56" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2092,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F57" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2121,13 +2103,13 @@
         <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2135,22 +2117,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2161,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G60" s="18">
-        <v>1300000</v>
+        <v>1700000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2184,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2207,19 +2189,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2230,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F63" s="18">
-        <v>29800</v>
+        <v>160000</v>
       </c>
       <c r="G63" s="18">
-        <v>745000</v>
+        <v>4000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2250,22 +2232,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
-        <v>29800</v>
+        <v>60000</v>
       </c>
       <c r="G64" s="18">
-        <v>745000</v>
+        <v>1500000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2276,19 +2258,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F65" s="18">
-        <v>14900</v>
+        <v>68000</v>
       </c>
       <c r="G65" s="18">
-        <v>745000</v>
+        <v>1700000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2299,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F66" s="18">
-        <v>29200</v>
+        <v>60000</v>
       </c>
       <c r="G66" s="18">
-        <v>730000</v>
+        <v>1500000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2322,19 +2304,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D67" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F67" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2345,19 +2327,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F68" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>4000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2365,22 +2347,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2391,19 +2373,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>1700000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2414,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F71" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2437,19 +2419,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2460,19 +2442,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F73" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>4000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2480,22 +2462,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F74" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2506,19 +2488,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
-        <v>52000</v>
+        <v>68000</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>1700000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2529,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F76" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2552,19 +2534,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F77" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2575,19 +2557,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F78" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>4000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2595,22 +2577,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F79" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>1500000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2621,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>20800</v>
+        <v>68000</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>1700000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2644,19 +2626,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F81" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G81" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2667,19 +2649,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F82" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G82" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2687,22 +2669,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F83" s="18">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="G83" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2710,16 +2692,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F84" s="18">
         <v>60000</v>
@@ -2733,22 +2715,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F85" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G85" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2756,16 +2738,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F86" s="18">
         <v>60000</v>
@@ -2779,16 +2761,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F87" s="18">
         <v>60000</v>
@@ -2802,22 +2784,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D88" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F88" s="18">
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="G88" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2825,16 +2807,16 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F89" s="18">
         <v>60000</v>
@@ -2848,22 +2830,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D90" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E90" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F90" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G90" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2871,16 +2853,16 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D91" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F91" s="18">
         <v>60000</v>
@@ -2894,16 +2876,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D92" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F92" s="18">
         <v>60000</v>
@@ -2917,22 +2899,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F93" s="18">
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="G93" s="18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2940,16 +2922,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
         <v>60000</v>
@@ -2963,22 +2945,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G95" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2986,16 +2968,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F96" s="18">
         <v>60000</v>
@@ -3009,16 +2991,16 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F97" s="18">
         <v>60000</v>
@@ -3035,19 +3017,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D98" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F98" s="18">
-        <v>58934</v>
+        <v>138666</v>
       </c>
       <c r="G98" s="18">
-        <v>1700000</v>
+        <v>4000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3055,22 +3037,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F99" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G99" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3081,16 +3063,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F100" s="18">
-        <v>68000</v>
+        <v>58934</v>
       </c>
       <c r="G100" s="18">
         <v>1700000</v>
@@ -3104,1087 +3086,75 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D101" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E101" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F101" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G101" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" s="17" t="s">
+      <c r="B102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F102" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="B107" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F109" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F111" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F130" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F136" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F137" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F142" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F143" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F145" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G146" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="26"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C151" s="32"/>
-      <c r="H151" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C152" s="32"/>
-      <c r="H152" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="B108" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="H108" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H107:J107"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
